--- a/src/main/webapp/_custom/documents/포탈 테이블 정의서-V0.1.xlsx
+++ b/src/main/webapp/_custom/documents/포탈 테이블 정의서-V0.1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace-gcgf\koreg\src\main\webapp\_custom\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\eclipse-workspace-gcgf\portal\src\main\webapp\_custom\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B5A1A35-FE24-4316-85D4-E0F20D6673D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C94D254-A232-4EB2-8827-6ABE53FF08FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CB9946FB-55D7-40A2-B811-91D6225731ED}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CB9946FB-55D7-40A2-B811-91D6225731ED}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블 목록" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'테이블 목록'!$A$5:$M$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'테이블 정의서'!$A$5:$J$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'테이블 정의서'!$A$5:$J$96</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="186">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -651,6 +651,117 @@
   </si>
   <si>
     <t>POST_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈 코드 분류 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>포탈 코드 테이블</t>
+  </si>
+  <si>
+    <t>포탈 코드 테이블</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_PORTAL_CODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_PORTAL_CODE_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 추가시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 분류 추가시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD_TYPE_ENG_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD_TYPE_ENG_ABRV_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD_TYPE_KOR_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD_TYPE_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD_TYPE_ORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 분류 영문명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 분류 영문 약어명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 분류 한글명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 분류 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 분류 순서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR2(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD_ENG_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD_ENG_ABRV_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD_KOR_NM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD_DESC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CD_ORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 영문명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 영문 약어명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 한글명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 순서</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +829,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -748,6 +859,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1063,10 +1183,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8081131C-1CCD-49EB-A1B9-B7D104A8B1DD}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1074,8 +1195,8 @@
     <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.25" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
@@ -1315,6 +1436,72 @@
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>6</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:M10" xr:uid="{8081131C-1CCD-49EB-A1B9-B7D104A8B1DD}"/>
@@ -1329,18 +1516,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{880BC3EA-F108-4055-8DA8-6E1D768D51BC}">
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26.25" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.75" style="7" bestFit="1" customWidth="1"/>
@@ -3309,8 +3497,574 @@
       <c r="I75" s="3"/>
       <c r="J75" s="5"/>
     </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D76" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F76" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G76" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I76" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J76" s="12"/>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="F77" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="G77" s="10"/>
+      <c r="H77" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I77" s="10"/>
+      <c r="J77" s="12"/>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A78" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C78" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D78" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F78" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="G78" s="10"/>
+      <c r="H78" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I78" s="10"/>
+      <c r="J78" s="12"/>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A79" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C79" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="G79" s="10"/>
+      <c r="H79" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I79" s="10"/>
+      <c r="J79" s="12"/>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A80" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D80" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="F80" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="G80" s="10"/>
+      <c r="H80" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I80" s="10"/>
+      <c r="J80" s="12"/>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A81" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D81" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E81" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F81" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G81" s="10"/>
+      <c r="H81" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I81" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J81" s="12"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A82" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D82" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F82" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G82" s="10"/>
+      <c r="H82" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I82" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J82" s="12"/>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A83" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D83" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F83" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G83" s="10"/>
+      <c r="H83" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I83" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J83" s="12"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A84" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F84" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G84" s="10"/>
+      <c r="H84" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I84" s="10"/>
+      <c r="J84" s="12"/>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A85" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="D85" s="11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F85" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G85" s="10"/>
+      <c r="H85" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I85" s="10"/>
+      <c r="J85" s="12"/>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A86" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D86" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="F86" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="G86" s="10"/>
+      <c r="H86" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I86" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J86" s="12"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A87" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B87" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D87" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="F87" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="G87" s="10"/>
+      <c r="H87" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I87" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J87" s="12"/>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A88" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B88" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D88" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="F88" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="G88" s="10"/>
+      <c r="H88" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="I88" s="10"/>
+      <c r="J88" s="12"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A89" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D89" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="F89" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="G89" s="10"/>
+      <c r="H89" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="I89" s="10"/>
+      <c r="J89" s="12"/>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A90" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="F90" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="G90" s="10"/>
+      <c r="H90" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="I90" s="10"/>
+      <c r="J90" s="12"/>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A91" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D91" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E91" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="G91" s="10"/>
+      <c r="H91" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="I91" s="10"/>
+      <c r="J91" s="12"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A92" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D92" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E92" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="F92" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G92" s="10"/>
+      <c r="H92" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="I92" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J92" s="12"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A93" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D93" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E93" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F93" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="G93" s="10"/>
+      <c r="H93" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I93" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J93" s="12"/>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A94" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B94" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D94" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E94" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F94" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="G94" s="10"/>
+      <c r="H94" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J94" s="12"/>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A95" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D95" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E95" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F95" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="G95" s="10"/>
+      <c r="H95" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I95" s="10"/>
+      <c r="J95" s="12"/>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A96" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D96" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="E96" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="F96" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="G96" s="10"/>
+      <c r="H96" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="I96" s="10"/>
+      <c r="J96" s="12"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:J75" xr:uid="{880BC3EA-F108-4055-8DA8-6E1D768D51BC}"/>
+  <autoFilter ref="A5:J96" xr:uid="{880BC3EA-F108-4055-8DA8-6E1D768D51BC}"/>
   <mergeCells count="1">
     <mergeCell ref="A4:J4"/>
   </mergeCells>
